--- a/表格/Skill.xlsx
+++ b/表格/Skill.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\Demo1\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155F6E1-C186-4C4A-9069-4E560A3618AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="2580" windowWidth="27210" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20700" yWindow="2580" windowWidth="27210" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="t_skill" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullPrecision="0"/>
+  <calcPr calcId="124519" fullPrecision="0"/>
 </workbook>
 </file>
 
@@ -61,10 +55,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -170,14 +160,18 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1356,341 +1350,341 @@
     </xf>
   </cellXfs>
   <cellStyles count="335">
-    <cellStyle name="20% - 强调文字颜色 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 10 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 10 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 10 2 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 10 2 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 10 2 2 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 10 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 10 2 2 2 4" xfId="27" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 10 2 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 10 2 2 3 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 10 2 2 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 10 2 2 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 10 2 2 4 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 10 2 2 4 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 10 2 2 5" xfId="70" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 10 2 2 5 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="常规 10 2 2 6" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 10 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 10 2 3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 10 2 3 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="常规 10 2 3 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="常规 10 2 3 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="常规 10 2 3 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="常规 10 2 3 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 10 2 3 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="常规 10 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="常规 10 2 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 10 2 4 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="常规 10 2 4 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 10 2 5" xfId="87" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 10 2 5 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="常规 10 2 5 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="常规 10 2 5 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="常规 10 2 6" xfId="17" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="常规 10 2 6 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="常规 10 2 7" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规 10 3" xfId="99" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="常规 10 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="常规 10 3 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="常规 10 3 2 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 10 3 2 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 10 3 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 10 3 2 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 10 3 2 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 10 3 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 10 3 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="常规 10 3 3 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="常规 10 3 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="常规 10 3 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="常规 10 3 4 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="常规 10 3 4 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="常规 10 3 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="常规 10 3 5" xfId="115" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 10 3 5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 10 3 6" xfId="116" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="常规 10 4" xfId="117" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 10 4 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 10 4 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="常规 10 4 2 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 10 4 2 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 10 4 3" xfId="124" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="常规 10 4 3 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="常规 10 4 4" xfId="126" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="常规 10 5" xfId="127" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="常规 10 5 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="常规 10 5 2 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="常规 10 5 3" xfId="130" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="常规 10 6" xfId="132" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="常规 10 6 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 10 6 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 10 6 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="常规 10 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="常规 10 7 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="常规 10 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 11" xfId="139" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="常规 12" xfId="141" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 12 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 12 2 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 12 2 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 12 2 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="常规 12 2 2 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="常规 12 2 2 2 2 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 12 2 2 2 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 12 2 2 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 12 2 2 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 12 2 2 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 12 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 12 2 2 3 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 12 2 2 3 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 12 2 2 3 3" xfId="159" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 12 2 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 12 2 2 4 2" xfId="162" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 12 2 2 4 2 2" xfId="163" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 12 2 2 4 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="常规 12 2 2 5" xfId="166" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 12 2 2 5 2" xfId="167" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 12 2 2 6" xfId="169" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="常规 12 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 12 2 3 2" xfId="171" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 12 2 3 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="常规 12 2 3 2 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="常规 12 2 3 2 3" xfId="173" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="常规 12 2 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="常规 12 2 3 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="常规 12 2 3 4" xfId="176" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="常规 12 2 4" xfId="177" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="常规 12 2 4 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="常规 12 2 4 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="常规 12 2 4 3" xfId="180" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="常规 12 2 5" xfId="181" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="常规 12 2 5 2" xfId="182" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="常规 12 2 5 2 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="常规 12 2 5 3" xfId="184" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="常规 12 2 6" xfId="186" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="常规 12 2 6 2" xfId="187" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="常规 12 2 7" xfId="188" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="常规 12 3" xfId="189" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="常规 12 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="常规 12 3 2 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="常规 12 3 2 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="常规 12 3 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="常规 12 3 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="常规 12 3 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="常规 12 3 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="常规 12 3 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="常规 12 3 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="常规 12 3 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="常规 12 3 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="常规 12 3 3 3" xfId="202" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="常规 12 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="常规 12 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="常规 12 3 4 2 2" xfId="205" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="常规 12 3 4 3" xfId="206" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="常规 12 3 5" xfId="207" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="常规 12 3 5 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="常规 12 3 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="常规 12 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="常规 12 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="常规 12 4 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="常规 12 4 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 12 4 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 12 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 12 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="常规 12 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="常规 12 5" xfId="216" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="常规 12 5 2" xfId="217" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="常规 12 5 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="常规 12 5 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="常规 12 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="常规 12 6 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="常规 12 6 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 12 6 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 12 7" xfId="227" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 12 7 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="常规 12 8" xfId="229" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="常规 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="常规 3 2 2 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 3 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="常规 3 2 2 2 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="常规 3 2 2 2 3 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="251" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="常规 3 2 2 2 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="常规 3 2 2 2 4 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="常规 3 2 2 2 4 3" xfId="71" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="常规 3 2 2 2 5" xfId="253" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="常规 3 2 2 2 5 2" xfId="98" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="常规 3 2 2 2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="常规 3 2 2 3" xfId="254" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="255" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="常规 3 2 2 3 2 2 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="258" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="259" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="常规 3 2 2 3 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="常规 3 2 2 3 4" xfId="260" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="常规 3 2 2 4" xfId="261" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="262" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="常规 3 2 2 4 2 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="263" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="常规 3 2 2 5" xfId="264" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="常规 3 2 2 5 2" xfId="265" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="常规 3 2 2 5 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="常规 3 2 2 5 3" xfId="267" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="常规 3 2 2 6" xfId="268" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="常规 3 2 2 6 2" xfId="269" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="常规 3 2 2 7" xfId="270" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="常规 3 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="常规 3 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="常规 3 2 3 2 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="275" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="常规 3 2 3 2 3 2" xfId="276" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="常规 3 2 3 2 4" xfId="278" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="常规 3 2 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="常规 3 2 3 3 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="281" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="常规 3 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="常规 3 2 3 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="常规 3 2 3 4 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 3 2 3 4 3" xfId="283" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="常规 3 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="常规 3 2 3 5 2" xfId="287" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="常规 3 2 3 6" xfId="289" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="常规 3 2 4" xfId="200" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规 3 2 4 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="常规 3 2 4 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="292" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="常规 3 2 4 3" xfId="293" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="常规 3 2 4 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="常规 3 2 4 4" xfId="294" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="常规 3 2 5" xfId="295" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="常规 3 2 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="常规 3 2 5 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="常规 3 2 5 3" xfId="298" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="常规 3 2 6" xfId="299" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="常规 3 2 6 2" xfId="300" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="常规 3 2 6 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="常规 3 2 6 3" xfId="302" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="常规 3 2 7" xfId="303" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="常规 3 2 7 2" xfId="277" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="常规 3 2 8" xfId="304" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="常规 3 3" xfId="91" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="常规 3 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="常规 3 3 2 2" xfId="305" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="常规 3 3 2 2 2 2 2" xfId="271" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="307" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="309" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="常规 3 3 2 2 3 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="常规 3 3 2 2 4" xfId="111" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="常规 3 3 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="常规 3 3 2 3 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="常规 3 3 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="常规 3 3 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="常规 3 3 2 4 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="常规 3 3 2 4 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="常规 3 3 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="常规 3 3 2 5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="常规 3 3 2 6" xfId="69" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="常规 3 3 3" xfId="312" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="常规 3 3 3 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="常规 3 3 3 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="226" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="常规 3 3 3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="常规 3 3 3 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="常规 3 3 3 4" xfId="79" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="常规 3 3 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="常规 3 3 4 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="常规 3 3 4 2 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="常规 3 3 4 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="常规 3 3 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="常规 3 3 5 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="常规 3 3 5 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="常规 3 3 5 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="常规 3 3 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="常规 3 3 6 2" xfId="318" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="常规 3 3 7" xfId="145" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="常规 3 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="常规 3 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="常规 3 4 2 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="常规 3 4 2 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="常规 3 4 2 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="常规 3 4 2 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="常规 3 4 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="常规 3 4 3" xfId="320" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="常规 3 4 3 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="常规 3 4 3 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 3 4 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 3 4 4" xfId="322" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 3 4 4 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="常规 3 4 4 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="常规 3 4 4 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="常规 3 4 5" xfId="323" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 3 4 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="常规 3 4 6" xfId="324" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="常规 3 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="常规 3 5 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="常规 3 5 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="常规 3 5 2 2 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="常规 3 5 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="常规 3 5 3" xfId="327" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 3 5 3 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 3 5 4" xfId="329" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 3 6" xfId="330" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 3 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 3 6 2 2" xfId="332" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 3 6 3" xfId="333" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 3 7 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 3 7 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 3 7 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 3 8" xfId="105" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 3 8 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 3 9" xfId="108" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 4" xfId="316" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 5" xfId="144" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 7" xfId="160" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 8" xfId="165" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 9" xfId="168" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 9 2" xfId="131" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="强调文字颜色 2" xfId="334" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="强调文字颜色 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="强调文字颜色 5" xfId="88" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 10" xfId="11"/>
+    <cellStyle name="常规 10 2" xfId="32"/>
+    <cellStyle name="常规 10 2 2" xfId="33"/>
+    <cellStyle name="常规 10 2 2 2" xfId="35"/>
+    <cellStyle name="常规 10 2 2 2 2" xfId="19"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="38"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="39"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="41"/>
+    <cellStyle name="常规 10 2 2 2 3" xfId="46"/>
+    <cellStyle name="常规 10 2 2 2 3 2" xfId="48"/>
+    <cellStyle name="常规 10 2 2 2 4" xfId="27"/>
+    <cellStyle name="常规 10 2 2 3" xfId="50"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="52"/>
+    <cellStyle name="常规 10 2 2 3 2 2" xfId="54"/>
+    <cellStyle name="常规 10 2 2 3 3" xfId="56"/>
+    <cellStyle name="常规 10 2 2 4" xfId="58"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="61"/>
+    <cellStyle name="常规 10 2 2 4 2 2" xfId="62"/>
+    <cellStyle name="常规 10 2 2 4 3" xfId="65"/>
+    <cellStyle name="常规 10 2 2 5" xfId="70"/>
+    <cellStyle name="常规 10 2 2 5 2" xfId="73"/>
+    <cellStyle name="常规 10 2 2 6" xfId="23"/>
+    <cellStyle name="常规 10 2 3" xfId="74"/>
+    <cellStyle name="常规 10 2 3 2" xfId="76"/>
+    <cellStyle name="常规 10 2 3 2 2" xfId="78"/>
+    <cellStyle name="常规 10 2 3 2 2 2" xfId="63"/>
+    <cellStyle name="常规 10 2 3 2 3" xfId="59"/>
+    <cellStyle name="常规 10 2 3 3" xfId="80"/>
+    <cellStyle name="常规 10 2 3 3 2" xfId="22"/>
+    <cellStyle name="常规 10 2 3 4" xfId="82"/>
+    <cellStyle name="常规 10 2 4" xfId="83"/>
+    <cellStyle name="常规 10 2 4 2" xfId="10"/>
+    <cellStyle name="常规 10 2 4 2 2" xfId="31"/>
+    <cellStyle name="常规 10 2 4 3" xfId="86"/>
+    <cellStyle name="常规 10 2 5" xfId="87"/>
+    <cellStyle name="常规 10 2 5 2" xfId="92"/>
+    <cellStyle name="常规 10 2 5 2 2" xfId="94"/>
+    <cellStyle name="常规 10 2 5 3" xfId="96"/>
+    <cellStyle name="常规 10 2 6" xfId="17"/>
+    <cellStyle name="常规 10 2 6 2" xfId="36"/>
+    <cellStyle name="常规 10 2 7" xfId="43"/>
+    <cellStyle name="常规 10 3" xfId="99"/>
+    <cellStyle name="常规 10 3 2" xfId="101"/>
+    <cellStyle name="常规 10 3 2 2" xfId="104"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="68"/>
+    <cellStyle name="常规 10 3 2 2 2 2" xfId="72"/>
+    <cellStyle name="常规 10 3 2 2 3" xfId="21"/>
+    <cellStyle name="常规 10 3 2 3" xfId="8"/>
+    <cellStyle name="常规 10 3 2 3 2" xfId="28"/>
+    <cellStyle name="常规 10 3 2 4" xfId="85"/>
+    <cellStyle name="常规 10 3 3" xfId="106"/>
+    <cellStyle name="常规 10 3 3 2" xfId="15"/>
+    <cellStyle name="常规 10 3 3 2 2" xfId="107"/>
+    <cellStyle name="常规 10 3 3 3" xfId="89"/>
+    <cellStyle name="常规 10 3 4" xfId="109"/>
+    <cellStyle name="常规 10 3 4 2" xfId="112"/>
+    <cellStyle name="常规 10 3 4 2 2" xfId="40"/>
+    <cellStyle name="常规 10 3 4 3" xfId="114"/>
+    <cellStyle name="常规 10 3 5" xfId="115"/>
+    <cellStyle name="常规 10 3 5 2" xfId="26"/>
+    <cellStyle name="常规 10 3 6" xfId="116"/>
+    <cellStyle name="常规 10 4" xfId="117"/>
+    <cellStyle name="常规 10 4 2" xfId="118"/>
+    <cellStyle name="常规 10 4 2 2" xfId="121"/>
+    <cellStyle name="常规 10 4 2 2 2" xfId="122"/>
+    <cellStyle name="常规 10 4 2 3" xfId="123"/>
+    <cellStyle name="常规 10 4 3" xfId="124"/>
+    <cellStyle name="常规 10 4 3 2" xfId="125"/>
+    <cellStyle name="常规 10 4 4" xfId="126"/>
+    <cellStyle name="常规 10 5" xfId="127"/>
+    <cellStyle name="常规 10 5 2" xfId="128"/>
+    <cellStyle name="常规 10 5 2 2" xfId="129"/>
+    <cellStyle name="常规 10 5 3" xfId="130"/>
+    <cellStyle name="常规 10 6" xfId="132"/>
+    <cellStyle name="常规 10 6 2" xfId="133"/>
+    <cellStyle name="常规 10 6 2 2" xfId="20"/>
+    <cellStyle name="常规 10 6 3" xfId="134"/>
+    <cellStyle name="常规 10 7" xfId="136"/>
+    <cellStyle name="常规 10 7 2" xfId="138"/>
+    <cellStyle name="常规 10 8" xfId="120"/>
+    <cellStyle name="常规 11" xfId="139"/>
+    <cellStyle name="常规 12" xfId="141"/>
+    <cellStyle name="常规 12 2" xfId="142"/>
+    <cellStyle name="常规 12 2 2" xfId="143"/>
+    <cellStyle name="常规 12 2 2 2" xfId="146"/>
+    <cellStyle name="常规 12 2 2 2 2" xfId="147"/>
+    <cellStyle name="常规 12 2 2 2 2 2" xfId="148"/>
+    <cellStyle name="常规 12 2 2 2 2 2 2" xfId="149"/>
+    <cellStyle name="常规 12 2 2 2 2 3" xfId="150"/>
+    <cellStyle name="常规 12 2 2 2 3" xfId="152"/>
+    <cellStyle name="常规 12 2 2 2 3 2" xfId="153"/>
+    <cellStyle name="常规 12 2 2 2 4" xfId="154"/>
+    <cellStyle name="常规 12 2 2 3" xfId="156"/>
+    <cellStyle name="常规 12 2 2 3 2" xfId="157"/>
+    <cellStyle name="常规 12 2 2 3 2 2" xfId="158"/>
+    <cellStyle name="常规 12 2 2 3 3" xfId="159"/>
+    <cellStyle name="常规 12 2 2 4" xfId="161"/>
+    <cellStyle name="常规 12 2 2 4 2" xfId="162"/>
+    <cellStyle name="常规 12 2 2 4 2 2" xfId="163"/>
+    <cellStyle name="常规 12 2 2 4 3" xfId="164"/>
+    <cellStyle name="常规 12 2 2 5" xfId="166"/>
+    <cellStyle name="常规 12 2 2 5 2" xfId="167"/>
+    <cellStyle name="常规 12 2 2 6" xfId="169"/>
+    <cellStyle name="常规 12 2 3" xfId="170"/>
+    <cellStyle name="常规 12 2 3 2" xfId="171"/>
+    <cellStyle name="常规 12 2 3 2 2" xfId="64"/>
+    <cellStyle name="常规 12 2 3 2 2 2" xfId="172"/>
+    <cellStyle name="常规 12 2 3 2 3" xfId="173"/>
+    <cellStyle name="常规 12 2 3 3" xfId="174"/>
+    <cellStyle name="常规 12 2 3 3 2" xfId="175"/>
+    <cellStyle name="常规 12 2 3 4" xfId="176"/>
+    <cellStyle name="常规 12 2 4" xfId="177"/>
+    <cellStyle name="常规 12 2 4 2" xfId="178"/>
+    <cellStyle name="常规 12 2 4 2 2" xfId="179"/>
+    <cellStyle name="常规 12 2 4 3" xfId="180"/>
+    <cellStyle name="常规 12 2 5" xfId="181"/>
+    <cellStyle name="常规 12 2 5 2" xfId="182"/>
+    <cellStyle name="常规 12 2 5 2 2" xfId="183"/>
+    <cellStyle name="常规 12 2 5 3" xfId="184"/>
+    <cellStyle name="常规 12 2 6" xfId="186"/>
+    <cellStyle name="常规 12 2 6 2" xfId="187"/>
+    <cellStyle name="常规 12 2 7" xfId="188"/>
+    <cellStyle name="常规 12 3" xfId="189"/>
+    <cellStyle name="常规 12 3 2" xfId="190"/>
+    <cellStyle name="常规 12 3 2 2" xfId="191"/>
+    <cellStyle name="常规 12 3 2 2 2" xfId="192"/>
+    <cellStyle name="常规 12 3 2 2 2 2" xfId="193"/>
+    <cellStyle name="常规 12 3 2 2 3" xfId="194"/>
+    <cellStyle name="常规 12 3 2 3" xfId="195"/>
+    <cellStyle name="常规 12 3 2 3 2" xfId="196"/>
+    <cellStyle name="常规 12 3 2 4" xfId="197"/>
+    <cellStyle name="常规 12 3 3" xfId="198"/>
+    <cellStyle name="常规 12 3 3 2" xfId="199"/>
+    <cellStyle name="常规 12 3 3 2 2" xfId="201"/>
+    <cellStyle name="常规 12 3 3 3" xfId="202"/>
+    <cellStyle name="常规 12 3 4" xfId="203"/>
+    <cellStyle name="常规 12 3 4 2" xfId="204"/>
+    <cellStyle name="常规 12 3 4 2 2" xfId="205"/>
+    <cellStyle name="常规 12 3 4 3" xfId="206"/>
+    <cellStyle name="常规 12 3 5" xfId="207"/>
+    <cellStyle name="常规 12 3 5 2" xfId="3"/>
+    <cellStyle name="常规 12 3 6" xfId="208"/>
+    <cellStyle name="常规 12 4" xfId="209"/>
+    <cellStyle name="常规 12 4 2" xfId="16"/>
+    <cellStyle name="常规 12 4 2 2" xfId="210"/>
+    <cellStyle name="常规 12 4 2 2 2" xfId="211"/>
+    <cellStyle name="常规 12 4 2 3" xfId="212"/>
+    <cellStyle name="常规 12 4 3" xfId="213"/>
+    <cellStyle name="常规 12 4 3 2" xfId="214"/>
+    <cellStyle name="常规 12 4 4" xfId="215"/>
+    <cellStyle name="常规 12 5" xfId="216"/>
+    <cellStyle name="常规 12 5 2" xfId="217"/>
+    <cellStyle name="常规 12 5 2 2" xfId="218"/>
+    <cellStyle name="常规 12 5 3" xfId="219"/>
+    <cellStyle name="常规 12 6" xfId="221"/>
+    <cellStyle name="常规 12 6 2" xfId="223"/>
+    <cellStyle name="常规 12 6 2 2" xfId="224"/>
+    <cellStyle name="常规 12 6 3" xfId="225"/>
+    <cellStyle name="常规 12 7" xfId="227"/>
+    <cellStyle name="常规 12 7 2" xfId="228"/>
+    <cellStyle name="常规 12 8" xfId="229"/>
+    <cellStyle name="常规 2" xfId="231"/>
+    <cellStyle name="常规 3" xfId="233"/>
+    <cellStyle name="常规 3 2" xfId="235"/>
+    <cellStyle name="常规 3 2 2" xfId="237"/>
+    <cellStyle name="常规 3 2 2 2" xfId="238"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="239"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="240"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="241"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2 2" xfId="242"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="47"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="244"/>
+    <cellStyle name="常规 3 2 2 2 2 3 2" xfId="245"/>
+    <cellStyle name="常规 3 2 2 2 2 4" xfId="246"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="247"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="248"/>
+    <cellStyle name="常规 3 2 2 2 3 2 2" xfId="249"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="250"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="251"/>
+    <cellStyle name="常规 3 2 2 2 4 2" xfId="24"/>
+    <cellStyle name="常规 3 2 2 2 4 2 2" xfId="1"/>
+    <cellStyle name="常规 3 2 2 2 4 3" xfId="71"/>
+    <cellStyle name="常规 3 2 2 2 5" xfId="253"/>
+    <cellStyle name="常规 3 2 2 2 5 2" xfId="98"/>
+    <cellStyle name="常规 3 2 2 2 6" xfId="30"/>
+    <cellStyle name="常规 3 2 2 3" xfId="254"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="255"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="256"/>
+    <cellStyle name="常规 3 2 2 3 2 2 2" xfId="257"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="258"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="259"/>
+    <cellStyle name="常规 3 2 2 3 3 2" xfId="185"/>
+    <cellStyle name="常规 3 2 2 3 4" xfId="260"/>
+    <cellStyle name="常规 3 2 2 4" xfId="261"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="262"/>
+    <cellStyle name="常规 3 2 2 4 2 2" xfId="140"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="263"/>
+    <cellStyle name="常规 3 2 2 5" xfId="264"/>
+    <cellStyle name="常规 3 2 2 5 2" xfId="265"/>
+    <cellStyle name="常规 3 2 2 5 2 2" xfId="266"/>
+    <cellStyle name="常规 3 2 2 5 3" xfId="267"/>
+    <cellStyle name="常规 3 2 2 6" xfId="268"/>
+    <cellStyle name="常规 3 2 2 6 2" xfId="269"/>
+    <cellStyle name="常规 3 2 2 7" xfId="270"/>
+    <cellStyle name="常规 3 2 3" xfId="272"/>
+    <cellStyle name="常规 3 2 3 2" xfId="273"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="274"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="252"/>
+    <cellStyle name="常规 3 2 3 2 2 2 2" xfId="97"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="29"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="275"/>
+    <cellStyle name="常规 3 2 3 2 3 2" xfId="276"/>
+    <cellStyle name="常规 3 2 3 2 4" xfId="278"/>
+    <cellStyle name="常规 3 2 3 3" xfId="5"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="279"/>
+    <cellStyle name="常规 3 2 3 3 2 2" xfId="280"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="281"/>
+    <cellStyle name="常规 3 2 3 4" xfId="282"/>
+    <cellStyle name="常规 3 2 3 4 2" xfId="42"/>
+    <cellStyle name="常规 3 2 3 4 2 2" xfId="151"/>
+    <cellStyle name="常规 3 2 3 4 3" xfId="283"/>
+    <cellStyle name="常规 3 2 3 5" xfId="285"/>
+    <cellStyle name="常规 3 2 3 5 2" xfId="287"/>
+    <cellStyle name="常规 3 2 3 6" xfId="289"/>
+    <cellStyle name="常规 3 2 4" xfId="200"/>
+    <cellStyle name="常规 3 2 4 2" xfId="290"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="291"/>
+    <cellStyle name="常规 3 2 4 2 2 2" xfId="113"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="292"/>
+    <cellStyle name="常规 3 2 4 3" xfId="293"/>
+    <cellStyle name="常规 3 2 4 3 2" xfId="243"/>
+    <cellStyle name="常规 3 2 4 4" xfId="294"/>
+    <cellStyle name="常规 3 2 5" xfId="295"/>
+    <cellStyle name="常规 3 2 5 2" xfId="296"/>
+    <cellStyle name="常规 3 2 5 2 2" xfId="297"/>
+    <cellStyle name="常规 3 2 5 3" xfId="298"/>
+    <cellStyle name="常规 3 2 6" xfId="299"/>
+    <cellStyle name="常规 3 2 6 2" xfId="300"/>
+    <cellStyle name="常规 3 2 6 2 2" xfId="301"/>
+    <cellStyle name="常规 3 2 6 3" xfId="302"/>
+    <cellStyle name="常规 3 2 7" xfId="303"/>
+    <cellStyle name="常规 3 2 7 2" xfId="277"/>
+    <cellStyle name="常规 3 2 8" xfId="304"/>
+    <cellStyle name="常规 3 3" xfId="91"/>
+    <cellStyle name="常规 3 3 2" xfId="93"/>
+    <cellStyle name="常规 3 3 2 2" xfId="305"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="306"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="84"/>
+    <cellStyle name="常规 3 3 2 2 2 2 2" xfId="271"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="307"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="309"/>
+    <cellStyle name="常规 3 3 2 2 3 2" xfId="311"/>
+    <cellStyle name="常规 3 3 2 2 4" xfId="111"/>
+    <cellStyle name="常规 3 3 2 3" xfId="34"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="18"/>
+    <cellStyle name="常规 3 3 2 3 2 2" xfId="37"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="45"/>
+    <cellStyle name="常规 3 3 2 4" xfId="49"/>
+    <cellStyle name="常规 3 3 2 4 2" xfId="51"/>
+    <cellStyle name="常规 3 3 2 4 2 2" xfId="53"/>
+    <cellStyle name="常规 3 3 2 4 3" xfId="55"/>
+    <cellStyle name="常规 3 3 2 5" xfId="57"/>
+    <cellStyle name="常规 3 3 2 5 2" xfId="60"/>
+    <cellStyle name="常规 3 3 2 6" xfId="69"/>
+    <cellStyle name="常规 3 3 3" xfId="312"/>
+    <cellStyle name="常规 3 3 3 2" xfId="313"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="220"/>
+    <cellStyle name="常规 3 3 3 2 2 2" xfId="222"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="226"/>
+    <cellStyle name="常规 3 3 3 3" xfId="75"/>
+    <cellStyle name="常规 3 3 3 3 2" xfId="77"/>
+    <cellStyle name="常规 3 3 3 4" xfId="79"/>
+    <cellStyle name="常规 3 3 4" xfId="230"/>
+    <cellStyle name="常规 3 3 4 2" xfId="314"/>
+    <cellStyle name="常规 3 3 4 2 2" xfId="315"/>
+    <cellStyle name="常规 3 3 4 3" xfId="9"/>
+    <cellStyle name="常规 3 3 5" xfId="232"/>
+    <cellStyle name="常规 3 3 5 2" xfId="234"/>
+    <cellStyle name="常规 3 3 5 2 2" xfId="236"/>
+    <cellStyle name="常规 3 3 5 3" xfId="90"/>
+    <cellStyle name="常规 3 3 6" xfId="317"/>
+    <cellStyle name="常规 3 3 6 2" xfId="318"/>
+    <cellStyle name="常规 3 3 7" xfId="145"/>
+    <cellStyle name="常规 3 4" xfId="95"/>
+    <cellStyle name="常规 3 4 2" xfId="4"/>
+    <cellStyle name="常规 3 4 2 2" xfId="319"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="284"/>
+    <cellStyle name="常规 3 4 2 2 2 2" xfId="286"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="288"/>
+    <cellStyle name="常规 3 4 2 3" xfId="103"/>
+    <cellStyle name="常规 3 4 2 3 2" xfId="67"/>
+    <cellStyle name="常规 3 4 2 4" xfId="7"/>
+    <cellStyle name="常规 3 4 3" xfId="320"/>
+    <cellStyle name="常规 3 4 3 2" xfId="321"/>
+    <cellStyle name="常规 3 4 3 2 2" xfId="81"/>
+    <cellStyle name="常规 3 4 3 3" xfId="14"/>
+    <cellStyle name="常规 3 4 4" xfId="322"/>
+    <cellStyle name="常规 3 4 4 2" xfId="308"/>
+    <cellStyle name="常规 3 4 4 2 2" xfId="310"/>
+    <cellStyle name="常规 3 4 4 3" xfId="110"/>
+    <cellStyle name="常规 3 4 5" xfId="323"/>
+    <cellStyle name="常规 3 4 5 2" xfId="44"/>
+    <cellStyle name="常规 3 4 6" xfId="324"/>
+    <cellStyle name="常规 3 5" xfId="325"/>
+    <cellStyle name="常规 3 5 2" xfId="326"/>
+    <cellStyle name="常规 3 5 2 2" xfId="135"/>
+    <cellStyle name="常规 3 5 2 2 2" xfId="137"/>
+    <cellStyle name="常规 3 5 2 3" xfId="119"/>
+    <cellStyle name="常规 3 5 3" xfId="327"/>
+    <cellStyle name="常规 3 5 3 2" xfId="328"/>
+    <cellStyle name="常规 3 5 4" xfId="329"/>
+    <cellStyle name="常规 3 6" xfId="330"/>
+    <cellStyle name="常规 3 6 2" xfId="331"/>
+    <cellStyle name="常规 3 6 2 2" xfId="332"/>
+    <cellStyle name="常规 3 6 3" xfId="333"/>
+    <cellStyle name="常规 3 7" xfId="100"/>
+    <cellStyle name="常规 3 7 2" xfId="102"/>
+    <cellStyle name="常规 3 7 2 2" xfId="66"/>
+    <cellStyle name="常规 3 7 3" xfId="6"/>
+    <cellStyle name="常规 3 8" xfId="105"/>
+    <cellStyle name="常规 3 8 2" xfId="13"/>
+    <cellStyle name="常规 3 9" xfId="108"/>
+    <cellStyle name="常规 4" xfId="316"/>
+    <cellStyle name="常规 5" xfId="144"/>
+    <cellStyle name="常规 6" xfId="155"/>
+    <cellStyle name="常规 7" xfId="160"/>
+    <cellStyle name="常规 8" xfId="165"/>
+    <cellStyle name="常规 9" xfId="168"/>
+    <cellStyle name="常规 9 2" xfId="131"/>
+    <cellStyle name="强调文字颜色 2" xfId="334"/>
+    <cellStyle name="强调文字颜色 4" xfId="12"/>
+    <cellStyle name="强调文字颜色 5" xfId="88"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2033,17 +2027,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
@@ -2056,18 +2050,18 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -2079,149 +2073,149 @@
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="85.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1002</v>
@@ -2246,12 +2240,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>1005</v>
@@ -2276,12 +2270,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>1004</v>

--- a/表格/Skill.xlsx
+++ b/表格/Skill.xlsx
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2237,7 +2237,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2267,7 +2267,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
